--- a/realme/Others/RSC Information(2)(1).xlsx
+++ b/realme/Others/RSC Information(2)(1).xlsx
@@ -250,12 +250,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,6 +264,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +588,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,22 +602,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -643,19 +643,19 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>1735959436</v>
       </c>
     </row>
@@ -663,19 +663,19 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>1917426342</v>
       </c>
     </row>
@@ -683,19 +683,19 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>1788128128</v>
       </c>
     </row>
@@ -703,19 +703,19 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>1733433999</v>
       </c>
     </row>
@@ -723,19 +723,19 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>1724950996</v>
       </c>
     </row>
@@ -743,19 +743,19 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>1788914019</v>
       </c>
     </row>
@@ -763,19 +763,19 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>1705424725</v>
       </c>
     </row>
@@ -783,19 +783,19 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>1737495544</v>
       </c>
     </row>
@@ -803,19 +803,19 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>1858889777</v>
       </c>
     </row>
@@ -823,19 +823,19 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>1711427916</v>
       </c>
     </row>
